--- a/AT-команды.xlsx
+++ b/AT-команды.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Команда</t>
   </si>
@@ -27,23 +27,133 @@
     <t>Параметры</t>
   </si>
   <si>
-    <t>Описание действий</t>
-  </si>
-  <si>
-    <t>AT+CGDCONT?</t>
-  </si>
-  <si>
     <t>AT+CGDCONT=</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1,"IP","static.beeline.ru"</t>
+    <t>Возможные значения</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>&lt;cid&gt;</t>
+  </si>
+  <si>
+    <t>[PDP_addr]</t>
+  </si>
+  <si>
+    <t>[d_comp]</t>
+  </si>
+  <si>
+    <t>[h_comp]</t>
+  </si>
+  <si>
+    <t>AT+CGDCONT=&lt;cid&gt;&lt;PDP_type&gt;&lt;APN&gt;[PDP_addr][d_comp][h_comp][pd1]</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>числовой</t>
+  </si>
+  <si>
+    <t>Тип данных параметра</t>
+  </si>
+  <si>
+    <t>Идентификатор PDP-контекста, , указывает на конкретное опоеделение PDP-контекста
+Если не &lt;cid&gt; указан, будут возвращены адреса для всех описанных (определённых) контекстов</t>
+  </si>
+  <si>
+    <t>тип PDP</t>
+  </si>
+  <si>
+    <t>строковый</t>
+  </si>
+  <si>
+    <t>[PDP_type]</t>
+  </si>
+  <si>
+    <t>[APN]</t>
+  </si>
+  <si>
+    <t>Данная команда задает значения параметров для PDP контекста с помощью локального контекстного идентификатора &lt;cid&gt;.</t>
+  </si>
+  <si>
+    <t>1 - 4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, PPP</t>
+    </r>
+  </si>
+  <si>
+    <t>static.beeline.ru</t>
+  </si>
+  <si>
+    <t>настройка сжатия данных</t>
+  </si>
+  <si>
+    <t>настройка сжатия заголовков</t>
+  </si>
+  <si>
+    <t>имя точки доступа</t>
+  </si>
+  <si>
+    <t>+CGDCONT: (диапазон поддерживаемых &lt;cid&gt;s),PDP_type&gt;,,,(список поддерживаемых &lt;d _ comp&gt;s),(список поддерживаемых &lt;h_comp&gt;s) [&lt;CR&gt;&lt;LF&gt;]</t>
+  </si>
+  <si>
+    <t>идентифицирует терминал в адресной строке применимо к PDP
+Если заначение = 0 или опущено, ТЕ принимает значение во время процедуры включения PDP, или будет запрошен динамический адрес.
+Тестовая форма команды (=?) вернет последовательность нулей, даже если параметр был дан во время процедуры включения PDP.
+PDP адрес может быть прочитан при помощи +CGPADDR команды.</t>
+  </si>
+  <si>
+    <t>AT+CGPADDR=[&lt;cid&gt;],[&lt;cid&gt;]…</t>
+  </si>
+  <si>
+    <t>+CGPADDR: &lt;cid&gt;,&lt;PDP_addr&gt;[&lt;CR&gt;&lt;LF&gt;
++CGPADDR: &lt;cid&gt;,&lt;PDP_addr&gt;
+[...]]
+OK</t>
+  </si>
+  <si>
+    <t>Исполнительная командавозвращает список PDP-адресов для указанных идентификаторов контекста в формате:</t>
+  </si>
+  <si>
+    <t>указывает отдельное описание PDP-контекста.
+Если не &lt;cid&gt; указан, будут возвращены адреса для всех описанных (определённых) контекстов</t>
+  </si>
+  <si>
+    <t>идентифицирует терминал в адресном пространстве, применимом к PDP.
+Адрес может быть статическим или динамическим. 
+Для статического адреса это будет адрес, установленный командой + CGDCONT при определении контекста.
+Для динамического адреса это будет адрес, назначенный во время последней активации контекста PDP, который использовал определение контекста, на которое ссылается &lt;cid&gt;;
+если адрес не доступен, параметр &lt;PDP_addr&gt; не отображается</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +175,14 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -74,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,11 +200,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -94,17 +227,38 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,210 +540,997 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:E248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="1" customWidth="1"/>
+    <col min="5" max="5" width="61.42578125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="2"/>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D135" s="2"/>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D136" s="2"/>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D137" s="2"/>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D138" s="2"/>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D139" s="2"/>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D140" s="2"/>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D141" s="2"/>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D142" s="2"/>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D143" s="2"/>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="2"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145" s="2"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D146" s="2"/>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D147" s="2"/>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D148" s="2"/>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="2"/>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D152" s="2"/>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D153" s="2"/>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D154" s="2"/>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D155" s="2"/>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D156" s="2"/>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D157" s="2"/>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D159" s="2"/>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D160" s="2"/>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="2"/>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D162" s="2"/>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D163" s="2"/>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D164" s="2"/>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D165" s="2"/>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D166" s="2"/>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D168" s="2"/>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D169" s="2"/>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D170" s="2"/>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D171" s="2"/>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D172" s="2"/>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D173" s="2"/>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D174" s="2"/>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D175" s="2"/>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D176" s="2"/>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D177" s="2"/>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D178" s="2"/>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D179" s="2"/>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D180" s="2"/>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D181" s="2"/>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D182" s="2"/>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D183" s="2"/>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D184" s="2"/>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D185" s="2"/>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D186" s="2"/>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D187" s="2"/>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D188" s="2"/>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D189" s="2"/>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D190" s="2"/>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D191" s="2"/>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D192" s="2"/>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D193" s="2"/>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D194" s="2"/>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D195" s="2"/>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D196" s="2"/>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D197" s="2"/>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D198" s="2"/>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D199" s="2"/>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D200" s="2"/>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D201" s="2"/>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D202" s="2"/>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D203" s="2"/>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D204" s="2"/>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D205" s="2"/>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D206" s="2"/>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D207" s="2"/>
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D208" s="2"/>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D209" s="2"/>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D210" s="2"/>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D211" s="2"/>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D212" s="2"/>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D213" s="2"/>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D214" s="2"/>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D215" s="2"/>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D216" s="2"/>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D217" s="2"/>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D218" s="2"/>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D219" s="2"/>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D220" s="2"/>
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D221" s="2"/>
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D222" s="2"/>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D223" s="2"/>
+    </row>
+    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D224" s="2"/>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D225" s="2"/>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D226" s="2"/>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D227" s="2"/>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D228" s="2"/>
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D229" s="2"/>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D230" s="2"/>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D231" s="2"/>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D232" s="2"/>
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D233" s="2"/>
+    </row>
+    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D234" s="2"/>
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D235" s="2"/>
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D236" s="2"/>
+    </row>
+    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D237" s="2"/>
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D238" s="2"/>
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D239" s="2"/>
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D240" s="2"/>
+    </row>
+    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D241" s="2"/>
+    </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D242" s="2"/>
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D243" s="2"/>
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D244" s="2"/>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D245" s="2"/>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D246" s="2"/>
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D247" s="2"/>
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D248" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/AT-команды.xlsx
+++ b/AT-команды.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
   <si>
     <t>Команда</t>
   </si>
@@ -147,6 +147,213 @@
 Для статического адреса это будет адрес, установленный командой + CGDCONT при определении контекста.
 Для динамического адреса это будет адрес, назначенный во время последней активации контекста PDP, который использовал определение контекста, на которое ссылается &lt;cid&gt;;
 если адрес не доступен, параметр &lt;PDP_addr&gt; не отображается</t>
+  </si>
+  <si>
+    <t>AT&amp;V</t>
+  </si>
+  <si>
+    <t>ATE</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>AT&amp;F[0]</t>
+  </si>
+  <si>
+    <t>AT+CSQ</t>
+  </si>
+  <si>
+    <t>&lt;rssi&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ber&gt;</t>
+  </si>
+  <si>
+    <t>AT+COPS?</t>
+  </si>
+  <si>
+    <t>AT+COPS=?</t>
+  </si>
+  <si>
+    <t>AT+CGREG</t>
+  </si>
+  <si>
+    <t>AT#SCFGEXT</t>
+  </si>
+  <si>
+    <t>AT+CPAS</t>
+  </si>
+  <si>
+    <t>AT+CGDATA</t>
+  </si>
+  <si>
+    <t>AT+CSCA</t>
+  </si>
+  <si>
+    <t>устанавливает адрес сервисного центра, который будет использоваться для передачи SMS с мобильных устройств</t>
+  </si>
+  <si>
+    <t>вывести текущую конфигурацию модуля</t>
+  </si>
+  <si>
+    <t>отключить эхо</t>
+  </si>
+  <si>
+    <t>включит эхо</t>
+  </si>
+  <si>
+    <t>восстановить заводские настройки (из EEPROM = энергонезависимой памяти)</t>
+  </si>
+  <si>
+    <t>Уровень сигнала</t>
+  </si>
+  <si>
+    <t>уровень сигнала [0 - 31]</t>
+  </si>
+  <si>
+    <t>частота появления ошибок [от 0 до 7]</t>
+  </si>
+  <si>
+    <t>получить имя выбранного оператора (в цифровом формате)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> получить список доступных операторов (цифровой и буквенный формат)</t>
+  </si>
+  <si>
+    <t>Команда Set устанавливает параметры конфигурации сокета</t>
+  </si>
+  <si>
+    <t>AT#SCFG=&lt;connId&gt;,&lt;cid&gt;,&lt;pktSz&gt;,&lt;maxTo&gt;,&lt;connTo&gt;,&lt;txTo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;connID&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pktSz&gt;</t>
+  </si>
+  <si>
+    <t>&lt;maxTo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;connTo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;txTo&gt;</t>
+  </si>
+  <si>
+    <t>идентификатор соединения сокета</t>
+  </si>
+  <si>
+    <t>идентификатор контекста PDP</t>
+  </si>
+  <si>
+    <t>размер пакета, который используется стеком TCP/UDP/IP для настройки данных</t>
+  </si>
+  <si>
+    <t>тайм-аут обмена (или тайм-аут неактивности сокета),
+если за это время не происходит обмена данными, соединение закрывается
+0 - нет тайм-аута</t>
+  </si>
+  <si>
+    <t>тайм-аут соединения, если мы не можем создать соединение за указанное время, возбуждается ошибка</t>
+  </si>
+  <si>
+    <t>тайм-аут настройки данных, после этого периода времени данные отправляются, даже если их размер меньше, чем максимальный размер пакета</t>
+  </si>
+  <si>
+    <t>статус регистрации в сети GPRS
+Команда  чтения  возвращает  поддерживаемые  значения  параметра &lt;stat&gt;,  который показывает, вернула  ли сеть сообщение о регистрации MT.</t>
+  </si>
+  <si>
+    <t>Socket Configuration Extended
+Команда настройки устанавливает расширенные параметры конфигурации сокета</t>
+  </si>
+  <si>
+    <t>GPRS Attach Or Detach (присоединение или разъединение по GPRS)
+ Исполнение команд используется, чтобы соединить терминал по/ разъединить терминал от службы GPRS</t>
+  </si>
+  <si>
+    <t>AT+CGATT</t>
+  </si>
+  <si>
+    <t>AT+CGACT=[&lt;state&gt;, &lt;cid&gt;]</t>
+  </si>
+  <si>
+    <t>AT+CNUM: &lt;alpha&gt;,&lt;number&gt;,&lt;type&gt;&lt;CR&gt;&lt;LF&gt;</t>
+  </si>
+  <si>
+    <t>получить свой номер телефона</t>
+  </si>
+  <si>
+    <t>Статус активности мобильного оборудования</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>готово (возможны команды из TA/TE)</t>
+  </si>
+  <si>
+    <t>недоступно</t>
+  </si>
+  <si>
+    <t>неизвестно</t>
+  </si>
+  <si>
+    <t>дозвон</t>
+  </si>
+  <si>
+    <t>в режиме соединения</t>
+  </si>
+  <si>
+    <t>в спящем режиме</t>
+  </si>
+  <si>
+    <t>активировать или деактивировать определённый PDP-контекст.
+После того, как команда выполнена, MT находится в командном режиме V.25ter. Если какой-либо PDP контекст уже находится в запрашиваемом состоянии, это состояние не изменяется.</t>
+  </si>
+  <si>
+    <t>Команда выполнения вызывает выполнение любых действий, необходимых для установления связи с сетью с использованием одного или нескольких типов PDP GPRS.</t>
+  </si>
+  <si>
+    <t>AT#SGACT?</t>
+  </si>
+  <si>
+    <t>&lt;state&gt;</t>
+  </si>
+  <si>
+    <t>0 | 1</t>
+  </si>
+  <si>
+    <t>не активирован | активирован</t>
+  </si>
+  <si>
+    <t>числовой параметр, который определяет номер PDP контекста</t>
+  </si>
+  <si>
+    <t>исполняемая команда, используемая для активации/деактивации либо GSM-контекста, либо указанного PDP-контекста</t>
+  </si>
+  <si>
+    <t>AT#SGACT=&lt;cid&gt;,&lt;stat&gt;[,&lt;userId&gt;,&lt;pwd&gt;]</t>
+  </si>
+  <si>
+    <t>контекст деактивирован | контекст активирован</t>
+  </si>
+  <si>
+    <t>Возвращает состояние всех контекстов, которые были определены через команды +CGDCONT или #GSMCONT</t>
   </si>
 </sst>
 </file>
@@ -219,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -240,9 +447,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -251,14 +455,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E248"/>
+  <dimension ref="A1:E275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -574,110 +787,110 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -688,337 +901,608 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="8" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D80" s="2"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
@@ -1525,11 +2009,96 @@
     <row r="248" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D248" s="2"/>
     </row>
+    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D249" s="2"/>
+    </row>
+    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D250" s="2"/>
+    </row>
+    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D251" s="2"/>
+    </row>
+    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D252" s="2"/>
+    </row>
+    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D253" s="2"/>
+    </row>
+    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D254" s="2"/>
+    </row>
+    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D255" s="2"/>
+    </row>
+    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D256" s="2"/>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D257" s="2"/>
+    </row>
+    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D258" s="2"/>
+    </row>
+    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D259" s="2"/>
+    </row>
+    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D260" s="2"/>
+    </row>
+    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D261" s="2"/>
+    </row>
+    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D262" s="2"/>
+    </row>
+    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D263" s="2"/>
+    </row>
+    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D264" s="2"/>
+    </row>
+    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D265" s="2"/>
+    </row>
+    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D266" s="2"/>
+    </row>
+    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D267" s="2"/>
+    </row>
+    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D268" s="2"/>
+    </row>
+    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D269" s="2"/>
+    </row>
+    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D270" s="2"/>
+    </row>
+    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D271" s="2"/>
+    </row>
+    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D272" s="2"/>
+    </row>
+    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D273" s="2"/>
+    </row>
+    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D274" s="2"/>
+    </row>
+    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D275" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="A49:D49"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/AT-команды.xlsx
+++ b/AT-команды.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="187">
   <si>
     <t>Команда</t>
   </si>
@@ -355,12 +356,356 @@
   <si>
     <t>Возвращает состояние всех контекстов, которые были определены через команды +CGDCONT или #GSMCONT</t>
   </si>
+  <si>
+    <t>AT+CBST=&lt;speed&gt;,&lt;name&gt;,&lt;ce&gt;</t>
+  </si>
+  <si>
+    <t>команда устанавливает для службы доставки информации &lt;name&gt; скорость передачи данных &lt;speed&gt; и элемент соединения &lt;ce&gt;, который будет использоваться при инициировании вызовов данных.
+Этот параметр также используется во время установки мобильного завершенного вызова для передачи данных, в случае вызовов с единой схемой нумерации (см. + CSNS)
+Для исходящего вызова важны &lt;speed&gt; и &lt;ce&gt;
+Для входящего вызова важен только &lt;ce&gt;</t>
+  </si>
+  <si>
+    <t>&lt;speed&gt;</t>
+  </si>
+  <si>
+    <t>&lt;name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ce&gt;</t>
+  </si>
+  <si>
+    <t>0 = автоопределение
+1 - 7, 14, 65, 66, 68, 70, 71, 75</t>
+  </si>
+  <si>
+    <t>прозрачный</t>
+  </si>
+  <si>
+    <t>непрозрачный (по умолчанию)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> НЕ ПОДДЕРЖИВАЮТСЯ
+AT+CBST=0,0,0 
+AT+CBST=14,0,0 
+AT+CBST=75,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скорость передачи данных
+Рекомендуется:
+AT+CBST=71,0,1 for mobile-to-mobile calls 
+AT+CBST=7,0,1 for mobile-to-fix calls </t>
+  </si>
+  <si>
+    <t>Имя службы доставки информации</t>
+  </si>
+  <si>
+    <t>цепь данных (без сжатия) асинхронная</t>
+  </si>
+  <si>
+    <t>Тип соединения</t>
+  </si>
+  <si>
+    <t>идентификатор PDP-контекста</t>
+  </si>
+  <si>
+    <t>&lt;stat&gt;</t>
+  </si>
+  <si>
+    <t>0|1</t>
+  </si>
+  <si>
+    <t>деактивировать | активировать контекст</t>
+  </si>
+  <si>
+    <t>&lt;userId&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pwd&gt;</t>
+  </si>
+  <si>
+    <t>используется только если контекст требует это</t>
+  </si>
+  <si>
+    <t>определяет контекст GSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активация | деактивация контекста возвращает ERROR, если не обнаружено ни одного сокета, ассоциированного с ним.
+На активацию контекста GSM влияет команда AT+CBST.
+В частности, активация контекста GSM разрешена только для «непрозрачных» вызовов данных.
+Активация контекста GSM, когда контекст PDP уже активирован, приводит к приостановке контекста PDP
+Если контекст GSM активен, активация контекста PDP не разрешена </t>
+  </si>
+  <si>
+    <t>Настоятельно рекомендуется использовать ту же команду (т.е. #SGACT=), чтобы активировать | деактивировать контекст или запросить состояние активации</t>
+  </si>
+  <si>
+    <t>AT#SCFGEXT=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">устанавливает расширенные параметры конфигурации сокета </t>
+  </si>
+  <si>
+    <t>&lt;conned&gt;</t>
+  </si>
+  <si>
+    <t>&lt;srMode&gt;</t>
+  </si>
+  <si>
+    <t>&lt;recvDataMode&gt;</t>
+  </si>
+  <si>
+    <t>&lt;keepalive&gt;</t>
+  </si>
+  <si>
+    <t>[&lt;ListenAutoRsp&gt;]</t>
+  </si>
+  <si>
+    <t>[&lt;sendDataMode&gt;]</t>
+  </si>
+  <si>
+    <t>1 ... 6</t>
+  </si>
+  <si>
+    <t>незапрашиваемый режим SRing</t>
+  </si>
+  <si>
+    <t>0 - нормальный
+SRING:&lt;connId&gt;, где &lt;connId&gt; - идентификатор соединения сокета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 – Количество данных: 
+   SRING: &lt;connId&gt;,&lt;recData&gt; где &lt;recData&gt; объём данных, полученных на номенр подключения сокета &lt;connId&gt; </t>
+  </si>
+  <si>
+    <t>идентификатор подключения сокета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Data view: 
+   SRING: &lt;connId&gt;,&lt;recData&gt;,&lt;data&gt; то же самое, что и в предыдущем случае + &lt;data&gt; - полученные данные отображаются после значения &lt;dataMode&gt;  </t>
+  </si>
+  <si>
+    <t>3 – Просмотр данных с информацией о дейтаграммах UDP: 
+   SRING: &lt;sourceIP&gt;,&lt;sourcePort&gt;&lt;connId&gt;,&lt;recData&gt;, 
+&lt;dataLeft&gt;,&lt;data&gt; то же, что и в предыдущем случае и &lt;sourceIP&gt;,&lt;sourcePort&gt; and 
+&lt;dataLeft&gt; что означает количество байтов, оставшихся в  UDP дейтаграмме</t>
+  </si>
+  <si>
+    <t>0 - текстовый режим</t>
+  </si>
+  <si>
+    <t>1 - шестнадцатиричный режим</t>
+  </si>
+  <si>
+    <t>Устанавливает TCP значение Keepalive в минутах</t>
+  </si>
+  <si>
+    <t>0 - деактивированно (по умолчанию)</t>
+  </si>
+  <si>
+    <t>1 - 240: Keepalive-время в минутах</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Устанавливает режим прослушивания автоответа, влияющий на команды </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>AT#SL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>AT#SLUDP</t>
+    </r>
+  </si>
+  <si>
+    <t>1 - активирован</t>
+  </si>
+  <si>
+    <t>режим данных для отправки данных в командном режиме
+(AT#SSEND)</t>
+  </si>
+  <si>
+    <t>0 - данные представлены в виде текста (по умолчанию)</t>
+  </si>
+  <si>
+    <t>1 - данные представлены в виде последовательности шестнадцатеричных номеров от 00 до FF</t>
+  </si>
+  <si>
+    <t>0 - деактивирован (по умолчанию)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Доступен только при </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>TCP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-соединении</t>
+    </r>
+  </si>
+  <si>
+    <t>AT#SCFGEXT?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">режим просмотра полученных данных в командном режиме (AT#SRECV или &lt;srMode&gt; = 2) </t>
+  </si>
+  <si>
+    <t>AT#SS</t>
+  </si>
+  <si>
+    <t>(Socket Status) - исполняемая команда сообщает текущий статус сокета</t>
+  </si>
+  <si>
+    <t>AT#SS=</t>
+  </si>
+  <si>
+    <t>&lt;connId&gt;</t>
+  </si>
+  <si>
+    <t>Идентификатор подключения сокета</t>
+  </si>
+  <si>
+    <t>Формат ответа:</t>
+  </si>
+  <si>
+    <t>&lt;locIP&gt;</t>
+  </si>
+  <si>
+    <t>&lt;locPort&gt;</t>
+  </si>
+  <si>
+    <t>&lt;remIP&gt;</t>
+  </si>
+  <si>
+    <t>&lt;remPort&gt;</t>
+  </si>
+  <si>
+    <t>фактическое состояние сокета</t>
+  </si>
+  <si>
+    <t>0 - Сокет закрыт</t>
+  </si>
+  <si>
+    <t>1 - Сокет с открытым соединением передачи данных</t>
+  </si>
+  <si>
+    <t>2 - Сокет приостановлен</t>
+  </si>
+  <si>
+    <t>3 - Сокет приостановлен с ожидающими данными</t>
+  </si>
+  <si>
+    <t>4 - Сокет прослушивает</t>
+  </si>
+  <si>
+    <t>5 - Сокет в режиме исходящего соединения. Ожидание принимающей или отклоняющей команды пользователя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP-адрес, связанный активацией контекста с сокетом </t>
+  </si>
+  <si>
+    <t>Два значения:
+прослушивающий порт, если мы обращаемся к сокету в режиме прослушивания</t>
+  </si>
+  <si>
+    <t>локальный порт для соединения, если мы используем сокет, чтобы подключиться к удалённой машине</t>
+  </si>
+  <si>
+    <t>когда мы подключены к удалённой машине, это удалённый IP-адрес</t>
+  </si>
+  <si>
+    <t>это порт, к которому мы подключены на удалённой машине</t>
+  </si>
+  <si>
+    <t>AT#SI[=&lt;connId&gt;]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">исполняемая команда используется для получения информации о трафике данных сокета. </t>
+  </si>
+  <si>
+    <t>&lt;sent&gt;</t>
+  </si>
+  <si>
+    <t>&lt;received&gt;</t>
+  </si>
+  <si>
+    <t>&lt;buff_in&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ack_waiting&gt;</t>
+  </si>
+  <si>
+    <t>1…6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total amount (in bytes) of sent data since the last time the socket connection identified by &lt;connId&gt; has been opened </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> total amount (in bytes) of received data since the last time the socket connection identified by &lt;connId&gt; has been opened </t>
+  </si>
+  <si>
+    <t>общий объем (в байтах) данных, только что поступивших через соединение сокета, идентифицированного &lt;connId&gt; и в настоящее время буферизованных, еще не прочитанных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">общее количество (в байтах) отправленных и еще не подтвержденных данных с момента последнего открытия соединения сокета, идентифицированного &lt;connId&gt; </t>
+  </si>
+  <si>
+    <t>параметры, связанные с сокетом, идентифицированным &lt;connId&gt;, очищаются, когда сам сокет снова подключается (#SD или #SA после #SL).
+До тех пор, если предыдущее соединение было установлено и закрыто, старые значения еще доступны.</t>
+  </si>
+  <si>
+    <t>Доступно только для TCP-соединения</t>
+  </si>
+  <si>
+    <t>Для UDP = 0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +735,45 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -399,7 +783,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -422,11 +806,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -461,17 +966,89 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E275"/>
+  <dimension ref="A1:E284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -787,12 +1364,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
@@ -804,8 +1381,8 @@
       <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="7" t="s">
         <v>25</v>
       </c>
@@ -901,12 +1478,12 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="7" t="s">
         <v>29</v>
       </c>
@@ -1004,7 +1581,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="9" t="s">
         <v>38</v>
       </c>
@@ -1062,12 +1639,12 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="7" t="s">
         <v>57</v>
       </c>
@@ -1161,7 +1738,9 @@
       <c r="B35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="9"/>
+      <c r="C35" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D35" s="8"/>
       <c r="E35" s="7" t="s">
         <v>94</v>
@@ -1172,7 +1751,9 @@
       <c r="B36" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="9"/>
+      <c r="C36" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D36" s="8" t="s">
         <v>92</v>
       </c>
@@ -1180,330 +1761,436 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+    <row r="37" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
+    </row>
+    <row r="38" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="7" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
+      <c r="B39" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>11</v>
+      </c>
       <c r="D39" s="8"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="8"/>
+      <c r="E39" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="E40" s="7" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="B41" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="D42" s="8"/>
-      <c r="E42" s="7" t="s">
-        <v>71</v>
+      <c r="E42" s="22" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
+      <c r="B43" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="D43" s="8"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
+      <c r="E43" s="23"/>
+    </row>
+    <row r="44" spans="1:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="26"/>
+    </row>
+    <row r="45" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11" t="s">
-        <v>92</v>
-      </c>
+      <c r="E45" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="8"/>
       <c r="E47" s="7" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="8"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
+    <row r="49" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="7" t="s">
-        <v>77</v>
-      </c>
+      <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>82</v>
-      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="8" t="s">
-        <v>78</v>
-      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
       <c r="E53" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="8" t="s">
-        <v>79</v>
+      <c r="A54" s="11"/>
+      <c r="B54" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>86</v>
-      </c>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="A56" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
       <c r="E56" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="8"/>
       <c r="E57" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>46</v>
-      </c>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="8"/>
+      <c r="D58" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="E58" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D80" s="2"/>
+    <row r="66" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="3"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="2"/>
@@ -2090,15 +2777,3478 @@
     <row r="275" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D275" s="2"/>
     </row>
+    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D276" s="2"/>
+    </row>
+    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D277" s="2"/>
+    </row>
+    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D278" s="2"/>
+    </row>
+    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D279" s="2"/>
+    </row>
+    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D280" s="2"/>
+    </row>
+    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D281" s="2"/>
+    </row>
+    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D282" s="2"/>
+    </row>
+    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D283" s="2"/>
+    </row>
+    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D284" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A49:D49"/>
+  <mergeCells count="13">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A56:D56"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H360"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="26.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" ht="114" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="20">
+        <v>1</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20">
+        <v>1</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="16"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="16"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="16"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="16"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="16"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="16"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="16"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="16"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" s="16"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B130" s="16"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B131" s="16"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B132" s="16"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B133" s="16"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="16"/>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B134" s="16"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B135" s="16"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B136" s="16"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B137" s="16"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="16"/>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B138" s="16"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="16"/>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B139" s="16"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B140" s="16"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B141" s="16"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B142" s="16"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="16"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="16"/>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B144" s="16"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="16"/>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B145" s="16"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B146" s="16"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B147" s="16"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="16"/>
+      <c r="H147" s="16"/>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B148" s="16"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="16"/>
+      <c r="H148" s="16"/>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B149" s="16"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B150" s="16"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="16"/>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B151" s="16"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="16"/>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B152" s="16"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
+      <c r="G152" s="16"/>
+      <c r="H152" s="16"/>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B153" s="16"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B154" s="16"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="16"/>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B155" s="16"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B156" s="16"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B157" s="16"/>
+      <c r="C157" s="16"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="16"/>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B158" s="16"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="16"/>
+      <c r="F158" s="16"/>
+      <c r="G158" s="16"/>
+      <c r="H158" s="16"/>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B159" s="16"/>
+      <c r="C159" s="16"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="16"/>
+      <c r="F159" s="16"/>
+      <c r="G159" s="16"/>
+      <c r="H159" s="16"/>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B160" s="16"/>
+      <c r="C160" s="16"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="16"/>
+      <c r="F160" s="16"/>
+      <c r="G160" s="16"/>
+      <c r="H160" s="16"/>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B161" s="16"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="16"/>
+      <c r="H161" s="16"/>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B162" s="16"/>
+      <c r="C162" s="16"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="16"/>
+      <c r="H162" s="16"/>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B163" s="16"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="16"/>
+      <c r="H163" s="16"/>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B164" s="16"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="16"/>
+      <c r="G164" s="16"/>
+      <c r="H164" s="16"/>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B165" s="16"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="16"/>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B166" s="16"/>
+      <c r="C166" s="16"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="16"/>
+      <c r="F166" s="16"/>
+      <c r="G166" s="16"/>
+      <c r="H166" s="16"/>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B167" s="16"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="16"/>
+      <c r="H167" s="16"/>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B168" s="16"/>
+      <c r="C168" s="16"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="16"/>
+      <c r="G168" s="16"/>
+      <c r="H168" s="16"/>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B169" s="16"/>
+      <c r="C169" s="16"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="16"/>
+      <c r="F169" s="16"/>
+      <c r="G169" s="16"/>
+      <c r="H169" s="16"/>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B170" s="16"/>
+      <c r="C170" s="16"/>
+      <c r="D170" s="16"/>
+      <c r="E170" s="16"/>
+      <c r="F170" s="16"/>
+      <c r="G170" s="16"/>
+      <c r="H170" s="16"/>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="16"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="16"/>
+      <c r="F171" s="16"/>
+      <c r="G171" s="16"/>
+      <c r="H171" s="16"/>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B172" s="16"/>
+      <c r="C172" s="16"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="16"/>
+      <c r="F172" s="16"/>
+      <c r="G172" s="16"/>
+      <c r="H172" s="16"/>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B173" s="16"/>
+      <c r="C173" s="16"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="16"/>
+      <c r="F173" s="16"/>
+      <c r="G173" s="16"/>
+      <c r="H173" s="16"/>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B174" s="16"/>
+      <c r="C174" s="16"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="16"/>
+      <c r="F174" s="16"/>
+      <c r="G174" s="16"/>
+      <c r="H174" s="16"/>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B175" s="16"/>
+      <c r="C175" s="16"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="16"/>
+      <c r="F175" s="16"/>
+      <c r="G175" s="16"/>
+      <c r="H175" s="16"/>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B176" s="16"/>
+      <c r="C176" s="16"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="16"/>
+      <c r="F176" s="16"/>
+      <c r="G176" s="16"/>
+      <c r="H176" s="16"/>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B177" s="16"/>
+      <c r="C177" s="16"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="16"/>
+      <c r="F177" s="16"/>
+      <c r="G177" s="16"/>
+      <c r="H177" s="16"/>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B178" s="16"/>
+      <c r="C178" s="16"/>
+      <c r="D178" s="16"/>
+      <c r="E178" s="16"/>
+      <c r="F178" s="16"/>
+      <c r="G178" s="16"/>
+      <c r="H178" s="16"/>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B179" s="16"/>
+      <c r="C179" s="16"/>
+      <c r="D179" s="16"/>
+      <c r="E179" s="16"/>
+      <c r="F179" s="16"/>
+      <c r="G179" s="16"/>
+      <c r="H179" s="16"/>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B180" s="16"/>
+      <c r="C180" s="16"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="16"/>
+      <c r="G180" s="16"/>
+      <c r="H180" s="16"/>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B181" s="16"/>
+      <c r="C181" s="16"/>
+      <c r="D181" s="16"/>
+      <c r="E181" s="16"/>
+      <c r="F181" s="16"/>
+      <c r="G181" s="16"/>
+      <c r="H181" s="16"/>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B182" s="16"/>
+      <c r="C182" s="16"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="16"/>
+      <c r="G182" s="16"/>
+      <c r="H182" s="16"/>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B183" s="16"/>
+      <c r="C183" s="16"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="16"/>
+      <c r="F183" s="16"/>
+      <c r="G183" s="16"/>
+      <c r="H183" s="16"/>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B184" s="16"/>
+      <c r="C184" s="16"/>
+      <c r="D184" s="16"/>
+      <c r="E184" s="16"/>
+      <c r="F184" s="16"/>
+      <c r="G184" s="16"/>
+      <c r="H184" s="16"/>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B185" s="16"/>
+      <c r="C185" s="16"/>
+      <c r="D185" s="16"/>
+      <c r="E185" s="16"/>
+      <c r="F185" s="16"/>
+      <c r="G185" s="16"/>
+      <c r="H185" s="16"/>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B186" s="16"/>
+      <c r="C186" s="16"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="16"/>
+      <c r="F186" s="16"/>
+      <c r="G186" s="16"/>
+      <c r="H186" s="16"/>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B187" s="16"/>
+      <c r="C187" s="16"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="16"/>
+      <c r="F187" s="16"/>
+      <c r="G187" s="16"/>
+      <c r="H187" s="16"/>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B188" s="16"/>
+      <c r="C188" s="16"/>
+      <c r="D188" s="16"/>
+      <c r="E188" s="16"/>
+      <c r="F188" s="16"/>
+      <c r="G188" s="16"/>
+      <c r="H188" s="16"/>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B189" s="16"/>
+      <c r="C189" s="16"/>
+      <c r="D189" s="16"/>
+      <c r="E189" s="16"/>
+      <c r="F189" s="16"/>
+      <c r="G189" s="16"/>
+      <c r="H189" s="16"/>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B190" s="16"/>
+      <c r="C190" s="16"/>
+      <c r="D190" s="16"/>
+      <c r="E190" s="16"/>
+      <c r="F190" s="16"/>
+      <c r="G190" s="16"/>
+      <c r="H190" s="16"/>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B191" s="16"/>
+      <c r="C191" s="16"/>
+      <c r="D191" s="16"/>
+      <c r="E191" s="16"/>
+      <c r="F191" s="16"/>
+      <c r="G191" s="16"/>
+      <c r="H191" s="16"/>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B192" s="16"/>
+      <c r="C192" s="16"/>
+      <c r="D192" s="16"/>
+      <c r="E192" s="16"/>
+      <c r="F192" s="16"/>
+      <c r="G192" s="16"/>
+      <c r="H192" s="16"/>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B193" s="16"/>
+      <c r="C193" s="16"/>
+      <c r="D193" s="16"/>
+      <c r="E193" s="16"/>
+      <c r="F193" s="16"/>
+      <c r="G193" s="16"/>
+      <c r="H193" s="16"/>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B194" s="16"/>
+      <c r="C194" s="16"/>
+      <c r="D194" s="16"/>
+      <c r="E194" s="16"/>
+      <c r="F194" s="16"/>
+      <c r="G194" s="16"/>
+      <c r="H194" s="16"/>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B195" s="16"/>
+      <c r="C195" s="16"/>
+      <c r="D195" s="16"/>
+      <c r="E195" s="16"/>
+      <c r="F195" s="16"/>
+      <c r="G195" s="16"/>
+      <c r="H195" s="16"/>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B196" s="16"/>
+      <c r="C196" s="16"/>
+      <c r="D196" s="16"/>
+      <c r="E196" s="16"/>
+      <c r="F196" s="16"/>
+      <c r="G196" s="16"/>
+      <c r="H196" s="16"/>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B197" s="16"/>
+      <c r="C197" s="16"/>
+      <c r="D197" s="16"/>
+      <c r="E197" s="16"/>
+      <c r="F197" s="16"/>
+      <c r="G197" s="16"/>
+      <c r="H197" s="16"/>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B198" s="16"/>
+      <c r="C198" s="16"/>
+      <c r="D198" s="16"/>
+      <c r="E198" s="16"/>
+      <c r="F198" s="16"/>
+      <c r="G198" s="16"/>
+      <c r="H198" s="16"/>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B199" s="16"/>
+      <c r="C199" s="16"/>
+      <c r="D199" s="16"/>
+      <c r="E199" s="16"/>
+      <c r="F199" s="16"/>
+      <c r="G199" s="16"/>
+      <c r="H199" s="16"/>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B200" s="16"/>
+      <c r="C200" s="16"/>
+      <c r="D200" s="16"/>
+      <c r="E200" s="16"/>
+      <c r="F200" s="16"/>
+      <c r="G200" s="16"/>
+      <c r="H200" s="16"/>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B201" s="16"/>
+      <c r="C201" s="16"/>
+      <c r="D201" s="16"/>
+      <c r="E201" s="16"/>
+      <c r="F201" s="16"/>
+      <c r="G201" s="16"/>
+      <c r="H201" s="16"/>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B202" s="16"/>
+      <c r="C202" s="16"/>
+      <c r="D202" s="16"/>
+      <c r="E202" s="16"/>
+      <c r="F202" s="16"/>
+      <c r="G202" s="16"/>
+      <c r="H202" s="16"/>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B203" s="16"/>
+      <c r="C203" s="16"/>
+      <c r="D203" s="16"/>
+      <c r="E203" s="16"/>
+      <c r="F203" s="16"/>
+      <c r="G203" s="16"/>
+      <c r="H203" s="16"/>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B204" s="16"/>
+      <c r="C204" s="16"/>
+      <c r="D204" s="16"/>
+      <c r="E204" s="16"/>
+      <c r="F204" s="16"/>
+      <c r="G204" s="16"/>
+      <c r="H204" s="16"/>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B205" s="16"/>
+      <c r="C205" s="16"/>
+      <c r="D205" s="16"/>
+      <c r="E205" s="16"/>
+      <c r="F205" s="16"/>
+      <c r="G205" s="16"/>
+      <c r="H205" s="16"/>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B206" s="16"/>
+      <c r="C206" s="16"/>
+      <c r="D206" s="16"/>
+      <c r="E206" s="16"/>
+      <c r="F206" s="16"/>
+      <c r="G206" s="16"/>
+      <c r="H206" s="16"/>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B207" s="16"/>
+      <c r="C207" s="16"/>
+      <c r="D207" s="16"/>
+      <c r="E207" s="16"/>
+      <c r="F207" s="16"/>
+      <c r="G207" s="16"/>
+      <c r="H207" s="16"/>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B208" s="16"/>
+      <c r="C208" s="16"/>
+      <c r="D208" s="16"/>
+      <c r="E208" s="16"/>
+      <c r="F208" s="16"/>
+      <c r="G208" s="16"/>
+      <c r="H208" s="16"/>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B209" s="16"/>
+      <c r="C209" s="16"/>
+      <c r="D209" s="16"/>
+      <c r="E209" s="16"/>
+      <c r="F209" s="16"/>
+      <c r="G209" s="16"/>
+      <c r="H209" s="16"/>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B210" s="16"/>
+      <c r="C210" s="16"/>
+      <c r="D210" s="16"/>
+      <c r="E210" s="16"/>
+      <c r="F210" s="16"/>
+      <c r="G210" s="16"/>
+      <c r="H210" s="16"/>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B211" s="16"/>
+      <c r="C211" s="16"/>
+      <c r="D211" s="16"/>
+      <c r="E211" s="16"/>
+      <c r="F211" s="16"/>
+      <c r="G211" s="16"/>
+      <c r="H211" s="16"/>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B212" s="16"/>
+      <c r="C212" s="16"/>
+      <c r="D212" s="16"/>
+      <c r="E212" s="16"/>
+      <c r="F212" s="16"/>
+      <c r="G212" s="16"/>
+      <c r="H212" s="16"/>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B213" s="16"/>
+      <c r="C213" s="16"/>
+      <c r="D213" s="16"/>
+      <c r="E213" s="16"/>
+      <c r="F213" s="16"/>
+      <c r="G213" s="16"/>
+      <c r="H213" s="16"/>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B214" s="16"/>
+      <c r="C214" s="16"/>
+      <c r="D214" s="16"/>
+      <c r="E214" s="16"/>
+      <c r="F214" s="16"/>
+      <c r="G214" s="16"/>
+      <c r="H214" s="16"/>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B215" s="16"/>
+      <c r="C215" s="16"/>
+      <c r="D215" s="16"/>
+      <c r="E215" s="16"/>
+      <c r="F215" s="16"/>
+      <c r="G215" s="16"/>
+      <c r="H215" s="16"/>
+    </row>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B216" s="16"/>
+      <c r="C216" s="16"/>
+      <c r="D216" s="16"/>
+      <c r="E216" s="16"/>
+      <c r="F216" s="16"/>
+      <c r="G216" s="16"/>
+      <c r="H216" s="16"/>
+    </row>
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B217" s="16"/>
+      <c r="C217" s="16"/>
+      <c r="D217" s="16"/>
+      <c r="E217" s="16"/>
+      <c r="F217" s="16"/>
+      <c r="G217" s="16"/>
+      <c r="H217" s="16"/>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B218" s="16"/>
+      <c r="C218" s="16"/>
+      <c r="D218" s="16"/>
+      <c r="E218" s="16"/>
+      <c r="F218" s="16"/>
+      <c r="G218" s="16"/>
+      <c r="H218" s="16"/>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B219" s="16"/>
+      <c r="C219" s="16"/>
+      <c r="D219" s="16"/>
+      <c r="E219" s="16"/>
+      <c r="F219" s="16"/>
+      <c r="G219" s="16"/>
+      <c r="H219" s="16"/>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B220" s="16"/>
+      <c r="C220" s="16"/>
+      <c r="D220" s="16"/>
+      <c r="E220" s="16"/>
+      <c r="F220" s="16"/>
+      <c r="G220" s="16"/>
+      <c r="H220" s="16"/>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B221" s="16"/>
+      <c r="C221" s="16"/>
+      <c r="D221" s="16"/>
+      <c r="E221" s="16"/>
+      <c r="F221" s="16"/>
+      <c r="G221" s="16"/>
+      <c r="H221" s="16"/>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B222" s="16"/>
+      <c r="C222" s="16"/>
+      <c r="D222" s="16"/>
+      <c r="E222" s="16"/>
+      <c r="F222" s="16"/>
+      <c r="G222" s="16"/>
+      <c r="H222" s="16"/>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B223" s="16"/>
+      <c r="C223" s="16"/>
+      <c r="D223" s="16"/>
+      <c r="E223" s="16"/>
+      <c r="F223" s="16"/>
+      <c r="G223" s="16"/>
+      <c r="H223" s="16"/>
+    </row>
+    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B224" s="16"/>
+      <c r="C224" s="16"/>
+      <c r="D224" s="16"/>
+      <c r="E224" s="16"/>
+      <c r="F224" s="16"/>
+      <c r="G224" s="16"/>
+      <c r="H224" s="16"/>
+    </row>
+    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B225" s="16"/>
+      <c r="C225" s="16"/>
+      <c r="D225" s="16"/>
+      <c r="E225" s="16"/>
+      <c r="F225" s="16"/>
+      <c r="G225" s="16"/>
+      <c r="H225" s="16"/>
+    </row>
+    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B226" s="16"/>
+      <c r="C226" s="16"/>
+      <c r="D226" s="16"/>
+      <c r="E226" s="16"/>
+      <c r="F226" s="16"/>
+      <c r="G226" s="16"/>
+      <c r="H226" s="16"/>
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B227" s="16"/>
+      <c r="C227" s="16"/>
+      <c r="D227" s="16"/>
+      <c r="E227" s="16"/>
+      <c r="F227" s="16"/>
+      <c r="G227" s="16"/>
+      <c r="H227" s="16"/>
+    </row>
+    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B228" s="16"/>
+      <c r="C228" s="16"/>
+      <c r="D228" s="16"/>
+      <c r="E228" s="16"/>
+      <c r="F228" s="16"/>
+      <c r="G228" s="16"/>
+      <c r="H228" s="16"/>
+    </row>
+    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B229" s="16"/>
+      <c r="C229" s="16"/>
+      <c r="D229" s="16"/>
+      <c r="E229" s="16"/>
+      <c r="F229" s="16"/>
+      <c r="G229" s="16"/>
+      <c r="H229" s="16"/>
+    </row>
+    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B230" s="16"/>
+      <c r="C230" s="16"/>
+      <c r="D230" s="16"/>
+      <c r="E230" s="16"/>
+      <c r="F230" s="16"/>
+      <c r="G230" s="16"/>
+      <c r="H230" s="16"/>
+    </row>
+    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B231" s="16"/>
+      <c r="C231" s="16"/>
+      <c r="D231" s="16"/>
+      <c r="E231" s="16"/>
+      <c r="F231" s="16"/>
+      <c r="G231" s="16"/>
+      <c r="H231" s="16"/>
+    </row>
+    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B232" s="16"/>
+      <c r="C232" s="16"/>
+      <c r="D232" s="16"/>
+      <c r="E232" s="16"/>
+      <c r="F232" s="16"/>
+      <c r="G232" s="16"/>
+      <c r="H232" s="16"/>
+    </row>
+    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B233" s="16"/>
+      <c r="C233" s="16"/>
+      <c r="D233" s="16"/>
+      <c r="E233" s="16"/>
+      <c r="F233" s="16"/>
+      <c r="G233" s="16"/>
+      <c r="H233" s="16"/>
+    </row>
+    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B234" s="16"/>
+      <c r="C234" s="16"/>
+      <c r="D234" s="16"/>
+      <c r="E234" s="16"/>
+      <c r="F234" s="16"/>
+      <c r="G234" s="16"/>
+      <c r="H234" s="16"/>
+    </row>
+    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B235" s="16"/>
+      <c r="C235" s="16"/>
+      <c r="D235" s="16"/>
+      <c r="E235" s="16"/>
+      <c r="F235" s="16"/>
+      <c r="G235" s="16"/>
+      <c r="H235" s="16"/>
+    </row>
+    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B236" s="16"/>
+      <c r="C236" s="16"/>
+      <c r="D236" s="16"/>
+      <c r="E236" s="16"/>
+      <c r="F236" s="16"/>
+      <c r="G236" s="16"/>
+      <c r="H236" s="16"/>
+    </row>
+    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B237" s="16"/>
+      <c r="C237" s="16"/>
+      <c r="D237" s="16"/>
+      <c r="E237" s="16"/>
+      <c r="F237" s="16"/>
+      <c r="G237" s="16"/>
+      <c r="H237" s="16"/>
+    </row>
+    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B238" s="16"/>
+      <c r="C238" s="16"/>
+      <c r="D238" s="16"/>
+      <c r="E238" s="16"/>
+      <c r="F238" s="16"/>
+      <c r="G238" s="16"/>
+      <c r="H238" s="16"/>
+    </row>
+    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B239" s="16"/>
+      <c r="C239" s="16"/>
+      <c r="D239" s="16"/>
+      <c r="E239" s="16"/>
+      <c r="F239" s="16"/>
+      <c r="G239" s="16"/>
+      <c r="H239" s="16"/>
+    </row>
+    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B240" s="16"/>
+      <c r="C240" s="16"/>
+      <c r="D240" s="16"/>
+      <c r="E240" s="16"/>
+      <c r="F240" s="16"/>
+      <c r="G240" s="16"/>
+      <c r="H240" s="16"/>
+    </row>
+    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B241" s="16"/>
+      <c r="C241" s="16"/>
+      <c r="D241" s="16"/>
+      <c r="E241" s="16"/>
+      <c r="F241" s="16"/>
+      <c r="G241" s="16"/>
+      <c r="H241" s="16"/>
+    </row>
+    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B242" s="16"/>
+      <c r="C242" s="16"/>
+      <c r="D242" s="16"/>
+      <c r="E242" s="16"/>
+      <c r="F242" s="16"/>
+      <c r="G242" s="16"/>
+      <c r="H242" s="16"/>
+    </row>
+    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B243" s="16"/>
+      <c r="C243" s="16"/>
+      <c r="D243" s="16"/>
+      <c r="E243" s="16"/>
+      <c r="F243" s="16"/>
+      <c r="G243" s="16"/>
+      <c r="H243" s="16"/>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B244" s="16"/>
+      <c r="C244" s="16"/>
+      <c r="D244" s="16"/>
+      <c r="E244" s="16"/>
+      <c r="F244" s="16"/>
+      <c r="G244" s="16"/>
+      <c r="H244" s="16"/>
+    </row>
+    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B245" s="16"/>
+      <c r="C245" s="16"/>
+      <c r="D245" s="16"/>
+      <c r="E245" s="16"/>
+      <c r="F245" s="16"/>
+      <c r="G245" s="16"/>
+      <c r="H245" s="16"/>
+    </row>
+    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B246" s="16"/>
+      <c r="C246" s="16"/>
+      <c r="D246" s="16"/>
+      <c r="E246" s="16"/>
+      <c r="F246" s="16"/>
+      <c r="G246" s="16"/>
+      <c r="H246" s="16"/>
+    </row>
+    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B247" s="16"/>
+      <c r="C247" s="16"/>
+      <c r="D247" s="16"/>
+      <c r="E247" s="16"/>
+      <c r="F247" s="16"/>
+      <c r="G247" s="16"/>
+      <c r="H247" s="16"/>
+    </row>
+    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B248" s="16"/>
+      <c r="C248" s="16"/>
+      <c r="D248" s="16"/>
+      <c r="E248" s="16"/>
+      <c r="F248" s="16"/>
+      <c r="G248" s="16"/>
+      <c r="H248" s="16"/>
+    </row>
+    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B249" s="16"/>
+      <c r="C249" s="16"/>
+      <c r="D249" s="16"/>
+      <c r="E249" s="16"/>
+      <c r="F249" s="16"/>
+      <c r="G249" s="16"/>
+      <c r="H249" s="16"/>
+    </row>
+    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B250" s="16"/>
+      <c r="C250" s="16"/>
+      <c r="D250" s="16"/>
+      <c r="E250" s="16"/>
+      <c r="F250" s="16"/>
+      <c r="G250" s="16"/>
+      <c r="H250" s="16"/>
+    </row>
+    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B251" s="16"/>
+      <c r="C251" s="16"/>
+      <c r="D251" s="16"/>
+      <c r="E251" s="16"/>
+      <c r="F251" s="16"/>
+      <c r="G251" s="16"/>
+      <c r="H251" s="16"/>
+    </row>
+    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B252" s="16"/>
+      <c r="C252" s="16"/>
+      <c r="D252" s="16"/>
+      <c r="E252" s="16"/>
+      <c r="F252" s="16"/>
+      <c r="G252" s="16"/>
+      <c r="H252" s="16"/>
+    </row>
+    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B253" s="16"/>
+      <c r="C253" s="16"/>
+      <c r="D253" s="16"/>
+      <c r="E253" s="16"/>
+      <c r="F253" s="16"/>
+      <c r="G253" s="16"/>
+      <c r="H253" s="16"/>
+    </row>
+    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B254" s="16"/>
+      <c r="C254" s="16"/>
+      <c r="D254" s="16"/>
+      <c r="E254" s="16"/>
+      <c r="F254" s="16"/>
+      <c r="G254" s="16"/>
+      <c r="H254" s="16"/>
+    </row>
+    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B255" s="16"/>
+      <c r="C255" s="16"/>
+      <c r="D255" s="16"/>
+      <c r="E255" s="16"/>
+      <c r="F255" s="16"/>
+      <c r="G255" s="16"/>
+      <c r="H255" s="16"/>
+    </row>
+    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B256" s="16"/>
+      <c r="C256" s="16"/>
+      <c r="D256" s="16"/>
+      <c r="E256" s="16"/>
+      <c r="F256" s="16"/>
+      <c r="G256" s="16"/>
+      <c r="H256" s="16"/>
+    </row>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B257" s="16"/>
+      <c r="C257" s="16"/>
+      <c r="D257" s="16"/>
+      <c r="E257" s="16"/>
+      <c r="F257" s="16"/>
+      <c r="G257" s="16"/>
+      <c r="H257" s="16"/>
+    </row>
+    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B258" s="16"/>
+      <c r="C258" s="16"/>
+      <c r="D258" s="16"/>
+      <c r="E258" s="16"/>
+      <c r="F258" s="16"/>
+      <c r="G258" s="16"/>
+      <c r="H258" s="16"/>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B259" s="16"/>
+      <c r="C259" s="16"/>
+      <c r="D259" s="16"/>
+      <c r="E259" s="16"/>
+      <c r="F259" s="16"/>
+      <c r="G259" s="16"/>
+      <c r="H259" s="16"/>
+    </row>
+    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B260" s="16"/>
+      <c r="C260" s="16"/>
+      <c r="D260" s="16"/>
+      <c r="E260" s="16"/>
+      <c r="F260" s="16"/>
+      <c r="G260" s="16"/>
+      <c r="H260" s="16"/>
+    </row>
+    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B261" s="16"/>
+      <c r="C261" s="16"/>
+      <c r="D261" s="16"/>
+      <c r="E261" s="16"/>
+      <c r="F261" s="16"/>
+      <c r="G261" s="16"/>
+      <c r="H261" s="16"/>
+    </row>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B262" s="16"/>
+      <c r="C262" s="16"/>
+      <c r="D262" s="16"/>
+      <c r="E262" s="16"/>
+      <c r="F262" s="16"/>
+      <c r="G262" s="16"/>
+      <c r="H262" s="16"/>
+    </row>
+    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B263" s="16"/>
+      <c r="C263" s="16"/>
+      <c r="D263" s="16"/>
+      <c r="E263" s="16"/>
+      <c r="F263" s="16"/>
+      <c r="G263" s="16"/>
+      <c r="H263" s="16"/>
+    </row>
+    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B264" s="16"/>
+      <c r="C264" s="16"/>
+      <c r="D264" s="16"/>
+      <c r="E264" s="16"/>
+      <c r="F264" s="16"/>
+      <c r="G264" s="16"/>
+      <c r="H264" s="16"/>
+    </row>
+    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B265" s="16"/>
+      <c r="C265" s="16"/>
+      <c r="D265" s="16"/>
+      <c r="E265" s="16"/>
+      <c r="F265" s="16"/>
+      <c r="G265" s="16"/>
+      <c r="H265" s="16"/>
+    </row>
+    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B266" s="16"/>
+      <c r="C266" s="16"/>
+      <c r="D266" s="16"/>
+      <c r="E266" s="16"/>
+      <c r="F266" s="16"/>
+      <c r="G266" s="16"/>
+      <c r="H266" s="16"/>
+    </row>
+    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B267" s="16"/>
+      <c r="C267" s="16"/>
+      <c r="D267" s="16"/>
+      <c r="E267" s="16"/>
+      <c r="F267" s="16"/>
+      <c r="G267" s="16"/>
+      <c r="H267" s="16"/>
+    </row>
+    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B268" s="16"/>
+      <c r="C268" s="16"/>
+      <c r="D268" s="16"/>
+      <c r="E268" s="16"/>
+      <c r="F268" s="16"/>
+      <c r="G268" s="16"/>
+      <c r="H268" s="16"/>
+    </row>
+    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B269" s="16"/>
+      <c r="C269" s="16"/>
+      <c r="D269" s="16"/>
+      <c r="E269" s="16"/>
+      <c r="F269" s="16"/>
+      <c r="G269" s="16"/>
+      <c r="H269" s="16"/>
+    </row>
+    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B270" s="16"/>
+      <c r="C270" s="16"/>
+      <c r="D270" s="16"/>
+      <c r="E270" s="16"/>
+      <c r="F270" s="16"/>
+      <c r="G270" s="16"/>
+      <c r="H270" s="16"/>
+    </row>
+    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B271" s="16"/>
+      <c r="C271" s="16"/>
+      <c r="D271" s="16"/>
+      <c r="E271" s="16"/>
+      <c r="F271" s="16"/>
+      <c r="G271" s="16"/>
+      <c r="H271" s="16"/>
+    </row>
+    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B272" s="16"/>
+      <c r="C272" s="16"/>
+      <c r="D272" s="16"/>
+      <c r="E272" s="16"/>
+      <c r="F272" s="16"/>
+      <c r="G272" s="16"/>
+      <c r="H272" s="16"/>
+    </row>
+    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B273" s="16"/>
+      <c r="C273" s="16"/>
+      <c r="D273" s="16"/>
+      <c r="E273" s="16"/>
+      <c r="F273" s="16"/>
+      <c r="G273" s="16"/>
+      <c r="H273" s="16"/>
+    </row>
+    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B274" s="16"/>
+      <c r="C274" s="16"/>
+      <c r="D274" s="16"/>
+      <c r="E274" s="16"/>
+      <c r="F274" s="16"/>
+      <c r="G274" s="16"/>
+      <c r="H274" s="16"/>
+    </row>
+    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B275" s="16"/>
+      <c r="C275" s="16"/>
+      <c r="D275" s="16"/>
+      <c r="E275" s="16"/>
+      <c r="F275" s="16"/>
+      <c r="G275" s="16"/>
+      <c r="H275" s="16"/>
+    </row>
+    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B276" s="16"/>
+      <c r="C276" s="16"/>
+      <c r="D276" s="16"/>
+      <c r="E276" s="16"/>
+      <c r="F276" s="16"/>
+      <c r="G276" s="16"/>
+      <c r="H276" s="16"/>
+    </row>
+    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B277" s="16"/>
+      <c r="C277" s="16"/>
+      <c r="D277" s="16"/>
+      <c r="E277" s="16"/>
+      <c r="F277" s="16"/>
+      <c r="G277" s="16"/>
+      <c r="H277" s="16"/>
+    </row>
+    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B278" s="16"/>
+      <c r="C278" s="16"/>
+      <c r="D278" s="16"/>
+      <c r="E278" s="16"/>
+      <c r="F278" s="16"/>
+      <c r="G278" s="16"/>
+      <c r="H278" s="16"/>
+    </row>
+    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B279" s="16"/>
+      <c r="C279" s="16"/>
+      <c r="D279" s="16"/>
+      <c r="E279" s="16"/>
+      <c r="F279" s="16"/>
+      <c r="G279" s="16"/>
+      <c r="H279" s="16"/>
+    </row>
+    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B280" s="16"/>
+      <c r="C280" s="16"/>
+      <c r="D280" s="16"/>
+      <c r="E280" s="16"/>
+      <c r="F280" s="16"/>
+      <c r="G280" s="16"/>
+      <c r="H280" s="16"/>
+    </row>
+    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B281" s="16"/>
+      <c r="C281" s="16"/>
+      <c r="D281" s="16"/>
+      <c r="E281" s="16"/>
+      <c r="F281" s="16"/>
+      <c r="G281" s="16"/>
+      <c r="H281" s="16"/>
+    </row>
+    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B282" s="16"/>
+      <c r="C282" s="16"/>
+      <c r="D282" s="16"/>
+      <c r="E282" s="16"/>
+      <c r="F282" s="16"/>
+      <c r="G282" s="16"/>
+      <c r="H282" s="16"/>
+    </row>
+    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B283" s="16"/>
+      <c r="C283" s="16"/>
+      <c r="D283" s="16"/>
+      <c r="E283" s="16"/>
+      <c r="F283" s="16"/>
+      <c r="G283" s="16"/>
+      <c r="H283" s="16"/>
+    </row>
+    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B284" s="16"/>
+      <c r="C284" s="16"/>
+      <c r="D284" s="16"/>
+      <c r="E284" s="16"/>
+      <c r="F284" s="16"/>
+      <c r="G284" s="16"/>
+      <c r="H284" s="16"/>
+    </row>
+    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B285" s="16"/>
+      <c r="C285" s="16"/>
+      <c r="D285" s="16"/>
+      <c r="E285" s="16"/>
+      <c r="F285" s="16"/>
+      <c r="G285" s="16"/>
+      <c r="H285" s="16"/>
+    </row>
+    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B286" s="16"/>
+      <c r="C286" s="16"/>
+      <c r="D286" s="16"/>
+      <c r="E286" s="16"/>
+      <c r="F286" s="16"/>
+      <c r="G286" s="16"/>
+      <c r="H286" s="16"/>
+    </row>
+    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B287" s="16"/>
+      <c r="C287" s="16"/>
+      <c r="D287" s="16"/>
+      <c r="E287" s="16"/>
+      <c r="F287" s="16"/>
+      <c r="G287" s="16"/>
+      <c r="H287" s="16"/>
+    </row>
+    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B288" s="16"/>
+      <c r="C288" s="16"/>
+      <c r="D288" s="16"/>
+      <c r="E288" s="16"/>
+      <c r="F288" s="16"/>
+      <c r="G288" s="16"/>
+      <c r="H288" s="16"/>
+    </row>
+    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B289" s="16"/>
+      <c r="C289" s="16"/>
+      <c r="D289" s="16"/>
+      <c r="E289" s="16"/>
+      <c r="F289" s="16"/>
+      <c r="G289" s="16"/>
+      <c r="H289" s="16"/>
+    </row>
+    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B290" s="16"/>
+      <c r="C290" s="16"/>
+      <c r="D290" s="16"/>
+      <c r="E290" s="16"/>
+      <c r="F290" s="16"/>
+      <c r="G290" s="16"/>
+      <c r="H290" s="16"/>
+    </row>
+    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B291" s="16"/>
+      <c r="C291" s="16"/>
+      <c r="D291" s="16"/>
+      <c r="E291" s="16"/>
+      <c r="F291" s="16"/>
+      <c r="G291" s="16"/>
+      <c r="H291" s="16"/>
+    </row>
+    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B292" s="16"/>
+      <c r="C292" s="16"/>
+      <c r="D292" s="16"/>
+      <c r="E292" s="16"/>
+      <c r="F292" s="16"/>
+      <c r="G292" s="16"/>
+      <c r="H292" s="16"/>
+    </row>
+    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B293" s="16"/>
+      <c r="C293" s="16"/>
+      <c r="D293" s="16"/>
+      <c r="E293" s="16"/>
+      <c r="F293" s="16"/>
+      <c r="G293" s="16"/>
+      <c r="H293" s="16"/>
+    </row>
+    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B294" s="16"/>
+      <c r="C294" s="16"/>
+      <c r="D294" s="16"/>
+      <c r="E294" s="16"/>
+      <c r="F294" s="16"/>
+      <c r="G294" s="16"/>
+      <c r="H294" s="16"/>
+    </row>
+    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B295" s="16"/>
+      <c r="C295" s="16"/>
+      <c r="D295" s="16"/>
+      <c r="E295" s="16"/>
+      <c r="F295" s="16"/>
+      <c r="G295" s="16"/>
+      <c r="H295" s="16"/>
+    </row>
+    <row r="296" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B296" s="16"/>
+      <c r="C296" s="16"/>
+      <c r="D296" s="16"/>
+      <c r="E296" s="16"/>
+      <c r="F296" s="16"/>
+      <c r="G296" s="16"/>
+      <c r="H296" s="16"/>
+    </row>
+    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B297" s="16"/>
+      <c r="C297" s="16"/>
+      <c r="D297" s="16"/>
+      <c r="E297" s="16"/>
+      <c r="F297" s="16"/>
+      <c r="G297" s="16"/>
+      <c r="H297" s="16"/>
+    </row>
+    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B298" s="16"/>
+      <c r="C298" s="16"/>
+      <c r="D298" s="16"/>
+      <c r="E298" s="16"/>
+      <c r="F298" s="16"/>
+      <c r="G298" s="16"/>
+      <c r="H298" s="16"/>
+    </row>
+    <row r="299" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B299" s="16"/>
+      <c r="C299" s="16"/>
+      <c r="D299" s="16"/>
+      <c r="E299" s="16"/>
+      <c r="F299" s="16"/>
+      <c r="G299" s="16"/>
+      <c r="H299" s="16"/>
+    </row>
+    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B300" s="16"/>
+      <c r="C300" s="16"/>
+      <c r="D300" s="16"/>
+      <c r="E300" s="16"/>
+      <c r="F300" s="16"/>
+      <c r="G300" s="16"/>
+      <c r="H300" s="16"/>
+    </row>
+    <row r="301" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B301" s="16"/>
+      <c r="C301" s="16"/>
+      <c r="D301" s="16"/>
+      <c r="E301" s="16"/>
+      <c r="F301" s="16"/>
+      <c r="G301" s="16"/>
+      <c r="H301" s="16"/>
+    </row>
+    <row r="302" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B302" s="16"/>
+      <c r="C302" s="16"/>
+      <c r="D302" s="16"/>
+      <c r="E302" s="16"/>
+      <c r="F302" s="16"/>
+      <c r="G302" s="16"/>
+      <c r="H302" s="16"/>
+    </row>
+    <row r="303" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B303" s="16"/>
+      <c r="C303" s="16"/>
+      <c r="D303" s="16"/>
+      <c r="E303" s="16"/>
+      <c r="F303" s="16"/>
+      <c r="G303" s="16"/>
+      <c r="H303" s="16"/>
+    </row>
+    <row r="304" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B304" s="16"/>
+      <c r="C304" s="16"/>
+      <c r="D304" s="16"/>
+      <c r="E304" s="16"/>
+      <c r="F304" s="16"/>
+      <c r="G304" s="16"/>
+      <c r="H304" s="16"/>
+    </row>
+    <row r="305" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B305" s="16"/>
+      <c r="C305" s="16"/>
+      <c r="D305" s="16"/>
+      <c r="E305" s="16"/>
+      <c r="F305" s="16"/>
+      <c r="G305" s="16"/>
+      <c r="H305" s="16"/>
+    </row>
+    <row r="306" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B306" s="16"/>
+      <c r="C306" s="16"/>
+      <c r="D306" s="16"/>
+      <c r="E306" s="16"/>
+      <c r="F306" s="16"/>
+      <c r="G306" s="16"/>
+      <c r="H306" s="16"/>
+    </row>
+    <row r="307" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B307" s="16"/>
+      <c r="C307" s="16"/>
+      <c r="D307" s="16"/>
+      <c r="E307" s="16"/>
+      <c r="F307" s="16"/>
+      <c r="G307" s="16"/>
+      <c r="H307" s="16"/>
+    </row>
+    <row r="308" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B308" s="16"/>
+      <c r="C308" s="16"/>
+      <c r="D308" s="16"/>
+      <c r="E308" s="16"/>
+      <c r="F308" s="16"/>
+      <c r="G308" s="16"/>
+      <c r="H308" s="16"/>
+    </row>
+    <row r="309" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B309" s="16"/>
+      <c r="C309" s="16"/>
+      <c r="D309" s="16"/>
+      <c r="E309" s="16"/>
+      <c r="F309" s="16"/>
+      <c r="G309" s="16"/>
+      <c r="H309" s="16"/>
+    </row>
+    <row r="310" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B310" s="16"/>
+      <c r="C310" s="16"/>
+      <c r="D310" s="16"/>
+      <c r="E310" s="16"/>
+      <c r="F310" s="16"/>
+      <c r="G310" s="16"/>
+      <c r="H310" s="16"/>
+    </row>
+    <row r="311" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B311" s="16"/>
+      <c r="C311" s="16"/>
+      <c r="D311" s="16"/>
+      <c r="E311" s="16"/>
+      <c r="F311" s="16"/>
+      <c r="G311" s="16"/>
+      <c r="H311" s="16"/>
+    </row>
+    <row r="312" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B312" s="16"/>
+      <c r="C312" s="16"/>
+      <c r="D312" s="16"/>
+      <c r="E312" s="16"/>
+      <c r="F312" s="16"/>
+      <c r="G312" s="16"/>
+      <c r="H312" s="16"/>
+    </row>
+    <row r="313" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B313" s="16"/>
+      <c r="C313" s="16"/>
+      <c r="D313" s="16"/>
+      <c r="E313" s="16"/>
+      <c r="F313" s="16"/>
+      <c r="G313" s="16"/>
+      <c r="H313" s="16"/>
+    </row>
+    <row r="314" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B314" s="16"/>
+      <c r="C314" s="16"/>
+      <c r="D314" s="16"/>
+      <c r="E314" s="16"/>
+      <c r="F314" s="16"/>
+      <c r="G314" s="16"/>
+      <c r="H314" s="16"/>
+    </row>
+    <row r="315" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B315" s="16"/>
+      <c r="C315" s="16"/>
+      <c r="D315" s="16"/>
+      <c r="E315" s="16"/>
+      <c r="F315" s="16"/>
+      <c r="G315" s="16"/>
+      <c r="H315" s="16"/>
+    </row>
+    <row r="316" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B316" s="16"/>
+      <c r="C316" s="16"/>
+      <c r="D316" s="16"/>
+      <c r="E316" s="16"/>
+      <c r="F316" s="16"/>
+      <c r="G316" s="16"/>
+      <c r="H316" s="16"/>
+    </row>
+    <row r="317" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B317" s="16"/>
+      <c r="C317" s="16"/>
+      <c r="D317" s="16"/>
+      <c r="E317" s="16"/>
+      <c r="F317" s="16"/>
+      <c r="G317" s="16"/>
+      <c r="H317" s="16"/>
+    </row>
+    <row r="318" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B318" s="16"/>
+      <c r="C318" s="16"/>
+      <c r="D318" s="16"/>
+      <c r="E318" s="16"/>
+      <c r="F318" s="16"/>
+      <c r="G318" s="16"/>
+      <c r="H318" s="16"/>
+    </row>
+    <row r="319" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B319" s="16"/>
+      <c r="C319" s="16"/>
+      <c r="D319" s="16"/>
+      <c r="E319" s="16"/>
+      <c r="F319" s="16"/>
+      <c r="G319" s="16"/>
+      <c r="H319" s="16"/>
+    </row>
+    <row r="320" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B320" s="16"/>
+      <c r="C320" s="16"/>
+      <c r="D320" s="16"/>
+      <c r="E320" s="16"/>
+      <c r="F320" s="16"/>
+      <c r="G320" s="16"/>
+      <c r="H320" s="16"/>
+    </row>
+    <row r="321" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B321" s="16"/>
+      <c r="C321" s="16"/>
+      <c r="D321" s="16"/>
+      <c r="E321" s="16"/>
+      <c r="F321" s="16"/>
+      <c r="G321" s="16"/>
+      <c r="H321" s="16"/>
+    </row>
+    <row r="322" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B322" s="16"/>
+      <c r="C322" s="16"/>
+      <c r="D322" s="16"/>
+      <c r="E322" s="16"/>
+      <c r="F322" s="16"/>
+      <c r="G322" s="16"/>
+      <c r="H322" s="16"/>
+    </row>
+    <row r="323" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B323" s="16"/>
+      <c r="C323" s="16"/>
+      <c r="D323" s="16"/>
+      <c r="E323" s="16"/>
+      <c r="F323" s="16"/>
+      <c r="G323" s="16"/>
+      <c r="H323" s="16"/>
+    </row>
+    <row r="324" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B324" s="16"/>
+      <c r="C324" s="16"/>
+      <c r="D324" s="16"/>
+      <c r="E324" s="16"/>
+      <c r="F324" s="16"/>
+      <c r="G324" s="16"/>
+      <c r="H324" s="16"/>
+    </row>
+    <row r="325" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B325" s="16"/>
+      <c r="C325" s="16"/>
+      <c r="D325" s="16"/>
+      <c r="E325" s="16"/>
+      <c r="F325" s="16"/>
+      <c r="G325" s="16"/>
+      <c r="H325" s="16"/>
+    </row>
+    <row r="326" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B326" s="16"/>
+      <c r="C326" s="16"/>
+      <c r="D326" s="16"/>
+      <c r="E326" s="16"/>
+      <c r="F326" s="16"/>
+      <c r="G326" s="16"/>
+      <c r="H326" s="16"/>
+    </row>
+    <row r="327" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B327" s="16"/>
+      <c r="C327" s="16"/>
+      <c r="D327" s="16"/>
+      <c r="E327" s="16"/>
+      <c r="F327" s="16"/>
+      <c r="G327" s="16"/>
+      <c r="H327" s="16"/>
+    </row>
+    <row r="328" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B328" s="16"/>
+      <c r="C328" s="16"/>
+      <c r="D328" s="16"/>
+      <c r="E328" s="16"/>
+      <c r="F328" s="16"/>
+      <c r="G328" s="16"/>
+      <c r="H328" s="16"/>
+    </row>
+    <row r="329" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B329" s="16"/>
+      <c r="C329" s="16"/>
+      <c r="D329" s="16"/>
+      <c r="E329" s="16"/>
+      <c r="F329" s="16"/>
+      <c r="G329" s="16"/>
+      <c r="H329" s="16"/>
+    </row>
+    <row r="330" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B330" s="16"/>
+      <c r="C330" s="16"/>
+      <c r="D330" s="16"/>
+      <c r="E330" s="16"/>
+      <c r="F330" s="16"/>
+      <c r="G330" s="16"/>
+      <c r="H330" s="16"/>
+    </row>
+    <row r="331" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B331" s="16"/>
+      <c r="C331" s="16"/>
+      <c r="D331" s="16"/>
+      <c r="E331" s="16"/>
+      <c r="F331" s="16"/>
+      <c r="G331" s="16"/>
+      <c r="H331" s="16"/>
+    </row>
+    <row r="332" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B332" s="16"/>
+      <c r="C332" s="16"/>
+      <c r="D332" s="16"/>
+      <c r="E332" s="16"/>
+      <c r="F332" s="16"/>
+      <c r="G332" s="16"/>
+      <c r="H332" s="16"/>
+    </row>
+    <row r="333" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B333" s="16"/>
+      <c r="C333" s="16"/>
+      <c r="D333" s="16"/>
+      <c r="E333" s="16"/>
+      <c r="F333" s="16"/>
+      <c r="G333" s="16"/>
+      <c r="H333" s="16"/>
+    </row>
+    <row r="334" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B334" s="16"/>
+      <c r="C334" s="16"/>
+      <c r="D334" s="16"/>
+      <c r="E334" s="16"/>
+      <c r="F334" s="16"/>
+      <c r="G334" s="16"/>
+      <c r="H334" s="16"/>
+    </row>
+    <row r="335" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B335" s="16"/>
+      <c r="C335" s="16"/>
+      <c r="D335" s="16"/>
+      <c r="E335" s="16"/>
+      <c r="F335" s="16"/>
+      <c r="G335" s="16"/>
+      <c r="H335" s="16"/>
+    </row>
+    <row r="336" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B336" s="16"/>
+      <c r="C336" s="16"/>
+      <c r="D336" s="16"/>
+      <c r="E336" s="16"/>
+      <c r="F336" s="16"/>
+      <c r="G336" s="16"/>
+      <c r="H336" s="16"/>
+    </row>
+    <row r="337" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B337" s="16"/>
+      <c r="C337" s="16"/>
+      <c r="D337" s="16"/>
+      <c r="E337" s="16"/>
+      <c r="F337" s="16"/>
+      <c r="G337" s="16"/>
+      <c r="H337" s="16"/>
+    </row>
+    <row r="338" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B338" s="16"/>
+      <c r="C338" s="16"/>
+      <c r="D338" s="16"/>
+      <c r="E338" s="16"/>
+      <c r="F338" s="16"/>
+      <c r="G338" s="16"/>
+      <c r="H338" s="16"/>
+    </row>
+    <row r="339" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B339" s="16"/>
+      <c r="C339" s="16"/>
+      <c r="D339" s="16"/>
+      <c r="E339" s="16"/>
+      <c r="F339" s="16"/>
+      <c r="G339" s="16"/>
+      <c r="H339" s="16"/>
+    </row>
+    <row r="340" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B340" s="16"/>
+      <c r="C340" s="16"/>
+      <c r="D340" s="16"/>
+      <c r="E340" s="16"/>
+      <c r="F340" s="16"/>
+      <c r="G340" s="16"/>
+      <c r="H340" s="16"/>
+    </row>
+    <row r="341" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B341" s="16"/>
+      <c r="C341" s="16"/>
+      <c r="D341" s="16"/>
+      <c r="E341" s="16"/>
+      <c r="F341" s="16"/>
+      <c r="G341" s="16"/>
+      <c r="H341" s="16"/>
+    </row>
+    <row r="342" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B342" s="16"/>
+      <c r="C342" s="16"/>
+      <c r="D342" s="16"/>
+      <c r="E342" s="16"/>
+      <c r="F342" s="16"/>
+      <c r="G342" s="16"/>
+      <c r="H342" s="16"/>
+    </row>
+    <row r="343" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B343" s="16"/>
+      <c r="C343" s="16"/>
+      <c r="D343" s="16"/>
+      <c r="E343" s="16"/>
+      <c r="F343" s="16"/>
+      <c r="G343" s="16"/>
+      <c r="H343" s="16"/>
+    </row>
+    <row r="344" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B344" s="16"/>
+      <c r="C344" s="16"/>
+      <c r="D344" s="16"/>
+      <c r="E344" s="16"/>
+      <c r="F344" s="16"/>
+      <c r="G344" s="16"/>
+      <c r="H344" s="16"/>
+    </row>
+    <row r="345" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B345" s="16"/>
+      <c r="C345" s="16"/>
+      <c r="D345" s="16"/>
+      <c r="E345" s="16"/>
+      <c r="F345" s="16"/>
+      <c r="G345" s="16"/>
+      <c r="H345" s="16"/>
+    </row>
+    <row r="346" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B346" s="16"/>
+      <c r="C346" s="16"/>
+      <c r="D346" s="16"/>
+      <c r="E346" s="16"/>
+      <c r="F346" s="16"/>
+      <c r="G346" s="16"/>
+      <c r="H346" s="16"/>
+    </row>
+    <row r="347" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B347" s="16"/>
+      <c r="C347" s="16"/>
+      <c r="D347" s="16"/>
+      <c r="E347" s="16"/>
+      <c r="F347" s="16"/>
+      <c r="G347" s="16"/>
+      <c r="H347" s="16"/>
+    </row>
+    <row r="348" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B348" s="16"/>
+      <c r="C348" s="16"/>
+      <c r="D348" s="16"/>
+      <c r="E348" s="16"/>
+      <c r="F348" s="16"/>
+      <c r="G348" s="16"/>
+      <c r="H348" s="16"/>
+    </row>
+    <row r="349" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B349" s="16"/>
+      <c r="C349" s="16"/>
+      <c r="D349" s="16"/>
+      <c r="E349" s="16"/>
+      <c r="F349" s="16"/>
+      <c r="G349" s="16"/>
+      <c r="H349" s="16"/>
+    </row>
+    <row r="350" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B350" s="16"/>
+      <c r="C350" s="16"/>
+      <c r="D350" s="16"/>
+      <c r="E350" s="16"/>
+      <c r="F350" s="16"/>
+      <c r="G350" s="16"/>
+      <c r="H350" s="16"/>
+    </row>
+    <row r="351" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B351" s="16"/>
+      <c r="C351" s="16"/>
+      <c r="D351" s="16"/>
+      <c r="E351" s="16"/>
+      <c r="F351" s="16"/>
+      <c r="G351" s="16"/>
+      <c r="H351" s="16"/>
+    </row>
+    <row r="352" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B352" s="16"/>
+      <c r="C352" s="16"/>
+      <c r="D352" s="16"/>
+      <c r="E352" s="16"/>
+      <c r="F352" s="16"/>
+      <c r="G352" s="16"/>
+      <c r="H352" s="16"/>
+    </row>
+    <row r="353" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B353" s="16"/>
+      <c r="C353" s="16"/>
+      <c r="D353" s="16"/>
+      <c r="E353" s="16"/>
+      <c r="F353" s="16"/>
+      <c r="G353" s="16"/>
+      <c r="H353" s="16"/>
+    </row>
+    <row r="354" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B354" s="16"/>
+      <c r="C354" s="16"/>
+      <c r="D354" s="16"/>
+      <c r="E354" s="16"/>
+      <c r="F354" s="16"/>
+      <c r="G354" s="16"/>
+      <c r="H354" s="16"/>
+    </row>
+    <row r="355" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B355" s="16"/>
+      <c r="C355" s="16"/>
+      <c r="D355" s="16"/>
+      <c r="E355" s="16"/>
+      <c r="F355" s="16"/>
+      <c r="G355" s="16"/>
+      <c r="H355" s="16"/>
+    </row>
+    <row r="356" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B356" s="16"/>
+      <c r="C356" s="16"/>
+      <c r="D356" s="16"/>
+      <c r="E356" s="16"/>
+      <c r="F356" s="16"/>
+      <c r="G356" s="16"/>
+      <c r="H356" s="16"/>
+    </row>
+    <row r="357" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B357" s="16"/>
+      <c r="C357" s="16"/>
+      <c r="D357" s="16"/>
+      <c r="E357" s="16"/>
+      <c r="F357" s="16"/>
+      <c r="G357" s="16"/>
+      <c r="H357" s="16"/>
+    </row>
+    <row r="358" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B358" s="16"/>
+      <c r="C358" s="16"/>
+      <c r="D358" s="16"/>
+      <c r="E358" s="16"/>
+      <c r="F358" s="16"/>
+      <c r="G358" s="16"/>
+      <c r="H358" s="16"/>
+    </row>
+    <row r="359" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B359" s="16"/>
+      <c r="C359" s="16"/>
+      <c r="D359" s="16"/>
+      <c r="E359" s="16"/>
+      <c r="F359" s="16"/>
+      <c r="G359" s="16"/>
+      <c r="H359" s="16"/>
+    </row>
+    <row r="360" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B360" s="16"/>
+      <c r="C360" s="16"/>
+      <c r="D360" s="16"/>
+      <c r="E360" s="16"/>
+      <c r="F360" s="16"/>
+      <c r="G360" s="16"/>
+      <c r="H360" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="A27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/AT-команды.xlsx
+++ b/AT-команды.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Описание_команд" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="244">
   <si>
     <t>Команда</t>
   </si>
@@ -699,6 +700,216 @@
   </si>
   <si>
     <t>Для UDP = 0</t>
+  </si>
+  <si>
+    <t>Команда чтения состояния параметров</t>
+  </si>
+  <si>
+    <t>Выводимые значения</t>
+  </si>
+  <si>
+    <t>Пояснение</t>
+  </si>
+  <si>
+    <t>ATE?</t>
+  </si>
+  <si>
+    <t>000
+OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTE SPEED                 : 9600
+DTE FORMAT               : AUTO
+GSM DATA MODE         : Not Transparent
+AUTOBAUD                  : +IPRxxx00=NO
+COMMAND ECHO           : E0=NO
+RESULT MESSAGES        : Q0=YES
+VERBOSE MESSAGES      : V1=YES
+EXTENDED MESSAGES    : X1=YES
+LINE SPEED                  : F0=autodetect
+CONSTANT DTE SPEED   : YES
+FLOW CONTROL OPTIONS      : &amp;K0=NO
+ERROR CORRECTION MODE    : RLP
+CTS (C106) OPTIONS          : &amp;B2=OFF while disc.
+DSR (C107) OPTIONS         : &amp;S3=PHONE ready-&gt;ON
+DTR (C108) OPTIONS          : &amp;D0=ignored
+DCD (C109) OPTIONS          : &amp;C1=follows carrier
+RI (C125) OPTIONS            : \R1=OFF dur. off-hk
+C108/1 OPERATION            : &amp;D0=NO
+POWER SAVING ON DTR      : +CFUN:1=NO
+DEFAULT PROFILE             : &amp;Y0=user profile 1
+</t>
+  </si>
+  <si>
+    <t>Вывод текущих параметров модема</t>
+  </si>
+  <si>
+    <t>Эхо команд отключено</t>
+  </si>
+  <si>
+    <t>AT+CPIN?</t>
+  </si>
+  <si>
+    <t>+CPIN: READY
+OK</t>
+  </si>
+  <si>
+    <t>SIM-карта готовы к использованию</t>
+  </si>
+  <si>
+    <t>GL865-DUAL-V3.1
+OK</t>
+  </si>
+  <si>
+    <t>AT+CGMM</t>
+  </si>
+  <si>
+    <t>Вывод идентификации модели</t>
+  </si>
+  <si>
+    <t>Вывод имени выбранного оператора связи</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>Идентификационные данные производителя и модели</t>
+  </si>
+  <si>
+    <t>ATI0</t>
+  </si>
+  <si>
+    <t>Уровень сигнала, частота появления ошибок</t>
+  </si>
+  <si>
+    <t>+CSQ: 12,1
+OK</t>
+  </si>
+  <si>
+    <t>+COPS: 0,0,"Beeline"
+OK</t>
+  </si>
+  <si>
+    <t>AT+CGDCONT?</t>
+  </si>
+  <si>
+    <t>Информация об имеющихся PDP-контекстах</t>
+  </si>
+  <si>
+    <t>AT+CGATT?</t>
+  </si>
+  <si>
+    <t>AT+CGACT?</t>
+  </si>
+  <si>
+    <t>#SCFGEXT: 1,0,0,200,1,0
+#SCFGEXT: 2,0,0,0,1,0
+#SCFGEXT: 3,0,0,0,0,0
+#SCFGEXT: 4,0,0,0,0,0
+#SCFGEXT: 5,0,0,0,0,0
+#SCFGEXT: 6,0,0,0,0,0
+OK</t>
+  </si>
+  <si>
+    <t>Вывод расширенных параметров конфигурации сокета</t>
+  </si>
+  <si>
+    <t>+CGDCONT: 1,"IP","static.beeline.ru","",0,0
+OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+CGATT: 1
+</t>
+  </si>
+  <si>
+    <t>+CGACT: 1,0</t>
+  </si>
+  <si>
+    <t>Возвращает текущее состояние службы GPRS: устройство соединено</t>
+  </si>
+  <si>
+    <t>Возвращает текущее состояние активации для всех определённых PDP-контекстов: идентификатор 1, состояние - [0 - деактивировано, 1 - активировано]</t>
+  </si>
+  <si>
+    <t>AT&amp;K?</t>
+  </si>
+  <si>
+    <t>Показывает режим управления контролем потока: без контроля
+В справочнике сказано, что команда не имеет режима чтения, лучше использовать для этого AT&amp;V</t>
+  </si>
+  <si>
+    <t>at+ipr?
++IPR: 9600</t>
+  </si>
+  <si>
+    <t>AT+IPR?</t>
+  </si>
+  <si>
+    <t>Выводит значение скорости обмена данными по последовательному интерфейсу: 9600 бод</t>
+  </si>
+  <si>
+    <t>Возвращает состояние всех контекстов, которые были определены с помощью команд +CGDCONT или #GSMCONT:
+0 - контекст деактивирован
+1 - контекст активирован</t>
+  </si>
+  <si>
+    <t>#TCPATRUNCFG=</t>
+  </si>
+  <si>
+    <t>&lt;instance&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tcpPort&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tcpHostPort&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tcpHost&gt;</t>
+  </si>
+  <si>
+    <t>&lt;urcmode&gt;</t>
+  </si>
+  <si>
+    <t>&lt;timeout&gt;</t>
+  </si>
+  <si>
+    <t>&lt;authMode&gt;</t>
+  </si>
+  <si>
+    <t>&lt;retryCnt&gt;</t>
+  </si>
+  <si>
+    <t>&lt;retryDelay&gt;</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>включить незапрашиваемые сообщения, когда TCP-сокет подключен или отключен</t>
+  </si>
+  <si>
+    <t>AT#SL</t>
+  </si>
+  <si>
+    <t>AT#SL=</t>
+  </si>
+  <si>
+    <t>&lt;listenState&gt;</t>
+  </si>
+  <si>
+    <t>&lt;listenPort&gt;</t>
+  </si>
+  <si>
+    <t>[&lt;closureType&gt;]</t>
+  </si>
+  <si>
+    <t>0 - закрыть прослушивание сокетом
+1 - открыть прослушивание сокетом</t>
+  </si>
+  <si>
+    <t>Локальный прослушивающий порт
+1…65535</t>
   </si>
 </sst>
 </file>
@@ -931,7 +1142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -993,6 +1204,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1033,22 +1271,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1332,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E284"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1364,12 +1596,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
@@ -1381,8 +1613,8 @@
       <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="7" t="s">
         <v>25</v>
       </c>
@@ -1478,12 +1710,12 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="7" t="s">
         <v>29</v>
       </c>
@@ -1639,12 +1871,12 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="7" t="s">
         <v>57</v>
       </c>
@@ -1762,31 +1994,31 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
     </row>
     <row r="38" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="38" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="8"/>
@@ -1796,8 +2028,8 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="30"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="8" t="s">
         <v>34</v>
       </c>
@@ -1829,7 +2061,7 @@
         <v>15</v>
       </c>
       <c r="D42" s="8"/>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1842,16 +2074,16 @@
         <v>15</v>
       </c>
       <c r="D43" s="8"/>
-      <c r="E43" s="23"/>
+      <c r="E43" s="32"/>
     </row>
     <row r="44" spans="1:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="26"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="35"/>
     </row>
     <row r="45" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
@@ -1922,12 +2154,12 @@
       <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="7" t="s">
         <v>88</v>
       </c>
@@ -1953,12 +2185,12 @@
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
       <c r="E56" s="7" t="s">
         <v>76</v>
       </c>
@@ -2063,12 +2295,12 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="7" t="s">
         <v>100</v>
       </c>
@@ -2827,53 +3059,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H360"/>
+  <dimension ref="A1:S360"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="26.140625" style="14"/>
+    <col min="4" max="4" width="26" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" style="14"/>
+    <col min="7" max="7" width="25.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="26.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="25" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2998,14 +3238,14 @@
       <c r="A10" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
       <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3034,25 +3274,25 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="25" t="s">
         <v>160</v>
       </c>
       <c r="H13" s="16"/>
@@ -3102,7 +3342,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
       <c r="C17" s="16" t="s">
         <v>164</v>
@@ -3113,7 +3353,7 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
         <v>165</v>
@@ -3124,7 +3364,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B19" s="16"/>
       <c r="C19" s="16" t="s">
         <v>166</v>
@@ -3135,7 +3375,7 @@
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
     </row>
-    <row r="20" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
       <c r="C20" s="16" t="s">
         <v>167</v>
@@ -3146,7 +3386,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -3155,43 +3395,43 @@
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="16"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="24" t="s">
         <v>178</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>155</v>
       </c>
@@ -3210,8 +3450,8 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="34" t="s">
+    <row r="25" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="22" t="s">
         <v>179</v>
       </c>
       <c r="C25" s="16"/>
@@ -3223,7 +3463,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -3234,19 +3474,19 @@
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
     </row>
-    <row r="27" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+    <row r="27" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -3254,17 +3494,62 @@
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="H29" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="J29" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="K29" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -3273,25 +3558,50 @@
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="16">
+        <v>1</v>
+      </c>
+      <c r="C31" s="22">
+        <v>2</v>
+      </c>
+      <c r="D31" s="22">
+        <v>1024</v>
+      </c>
+      <c r="E31" s="22">
+        <v>1024</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" s="22">
+        <v>1</v>
+      </c>
+      <c r="H31" s="22">
+        <v>5</v>
+      </c>
+      <c r="I31" s="27">
+        <v>0</v>
+      </c>
+      <c r="J31" s="27">
+        <v>0</v>
+      </c>
+      <c r="K31" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
+      <c r="G32" s="16" t="s">
+        <v>236</v>
+      </c>
       <c r="H32" s="16"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -3300,7 +3610,10 @@
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>237</v>
+      </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -3309,25 +3622,42 @@
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>241</v>
+      </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
+    <row r="36" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>243</v>
+      </c>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -3336,7 +3666,7 @@
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -3345,7 +3675,7 @@
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
@@ -3354,7 +3684,7 @@
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
@@ -3363,7 +3693,7 @@
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -3372,7 +3702,7 @@
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
@@ -3381,7 +3711,7 @@
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -3390,7 +3720,7 @@
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -3399,7 +3729,7 @@
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
@@ -3408,7 +3738,7 @@
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -3417,7 +3747,7 @@
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -3426,7 +3756,7 @@
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
@@ -6253,4 +6583,188 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="27.42578125" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="322.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>